--- a/Documentation/Scrum.xlsx
+++ b/Documentation/Scrum.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
     <sheet name="Project Backloog" sheetId="2" r:id="rId2"/>
+    <sheet name="15-05" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -45,58 +46,55 @@
     <t>Estimated time</t>
   </si>
   <si>
-    <t>As user I want to connect to server</t>
-  </si>
-  <si>
     <t>Story</t>
   </si>
   <si>
-    <t xml:space="preserve">As client user I want to see a list of tours in a given date interval </t>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Customer wants Client GUI</t>
+  </si>
+  <si>
+    <t>Customer wants Server GUI</t>
+  </si>
+  <si>
+    <t>Customer wants to get data from external database</t>
+  </si>
+  <si>
+    <t>Customer wants to store data in database</t>
+  </si>
+  <si>
+    <t>Customer wants users to have log-ins</t>
+  </si>
+  <si>
+    <t>Customer wants to have secure user accounts</t>
+  </si>
+  <si>
+    <t>Customer wants Client - Server architecture</t>
+  </si>
+  <si>
+    <t>Customer wants to see list of movies</t>
+  </si>
+  <si>
+    <t>PB-ID</t>
+  </si>
+  <si>
+    <t>Task title</t>
+  </si>
+  <si>
+    <t>Responsible</t>
   </si>
   <si>
     <t>Estimated</t>
   </si>
   <si>
-    <t>Critical</t>
+    <t>Status</t>
   </si>
   <si>
-    <t>Customer wants façade design pattern</t>
-  </si>
-  <si>
-    <t>Customer wants MVC design pattern</t>
-  </si>
-  <si>
-    <t>Customer wants proxy design pattern</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Different GUI on client computers</t>
-  </si>
-  <si>
-    <t>After connecting client to server, current trip list is displayed</t>
-  </si>
-  <si>
-    <t>Customer wants iterator design pattern</t>
-  </si>
-  <si>
-    <t>Customer wants observer design pattern</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Customer wants singleton design pattern</t>
-  </si>
-  <si>
-    <t>Display triplist in GUI on update</t>
-  </si>
-  <si>
-    <t>Customer require to test proxy</t>
-  </si>
-  <si>
-    <t>Customer wants clean code without redundant methods and useless sysouts.</t>
+    <t>Sprint planning haven't been held yet</t>
   </si>
 </sst>
 </file>
@@ -332,43 +330,47 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Burndown Chart'!$B$1:$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Estimated</c:v>
-                </c:pt>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>dd-mm-yy</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="1">
-                  <c:v>22-04-17</c:v>
+                  <c:v>42870</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24-04-17</c:v>
+                  <c:v>42872</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26-04-17</c:v>
+                  <c:v>42874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28-04-17</c:v>
+                  <c:v>42877</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>01-05-17</c:v>
+                  <c:v>42879</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>03-05-17</c:v>
+                  <c:v>42881</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>05-05-17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>42884</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$16:$I$16</c:f>
+              <c:f>'Burndown Chart'!$B$16:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -391,6 +393,12 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -436,66 +444,76 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Burndown Chart'!$B$1:$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Estimated</c:v>
-                </c:pt>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>dd-mm-yy</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="1">
-                  <c:v>22-04-17</c:v>
+                  <c:v>42870</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24-04-17</c:v>
+                  <c:v>42872</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26-04-17</c:v>
+                  <c:v>42874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28-04-17</c:v>
+                  <c:v>42877</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>01-05-17</c:v>
+                  <c:v>42879</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>03-05-17</c:v>
+                  <c:v>42881</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>05-05-17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>42884</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$17:$I$17</c:f>
+              <c:f>'Burndown Chart'!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.142857142857142</c:v>
+                  <c:v>17.777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.285714285714285</c:v>
+                  <c:v>15.555555555555557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.428571428571427</c:v>
+                  <c:v>13.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5714285714285694</c:v>
+                  <c:v>11.111111111111114</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7142857142857117</c:v>
+                  <c:v>8.8888888888888928</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8571428571428545</c:v>
+                  <c:v>6.6666666666666705</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4.4444444444444482</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2222222222222259</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5527136788005009E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -519,14 +537,15 @@
         <c:axId val="376977704"/>
         <c:axId val="376978032"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="376977704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="42889"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="dd-mm-yy" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -565,10 +584,9 @@
         <c:crossAx val="376978032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="376978032"/>
         <c:scaling>
@@ -1256,7 +1274,7 @@
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
@@ -1584,10 +1602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,42 +1617,46 @@
     <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="10" width="10.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
       <c r="C1" s="4">
-        <v>42847</v>
+        <v>42870</v>
       </c>
       <c r="D1" s="4">
-        <v>42849</v>
+        <v>42872</v>
       </c>
       <c r="E1" s="4">
-        <v>42851</v>
+        <v>42874</v>
       </c>
       <c r="F1" s="4">
-        <v>42853</v>
+        <v>42877</v>
       </c>
       <c r="G1" s="4">
-        <v>42856</v>
+        <v>42879</v>
       </c>
       <c r="H1" s="4">
-        <v>42858</v>
+        <v>42881</v>
       </c>
       <c r="I1" s="4">
-        <v>42860</v>
-      </c>
-      <c r="J1" s="3" t="s">
+        <v>42884</v>
+      </c>
+      <c r="J1" s="4">
+        <v>42886</v>
+      </c>
+      <c r="K1" s="4">
+        <v>42889</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="5">
         <v>20</v>
@@ -1646,12 +1668,14 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="5">
-        <f t="shared" ref="J2:J14" si="0">SUM(C2:I2)</f>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="5">
+        <f t="shared" ref="L2:L14" si="0">SUM(C2:K2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1661,12 +1685,14 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="5">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -1676,12 +1702,14 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="5">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -1691,12 +1719,14 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="5">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
@@ -1706,12 +1736,14 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="5">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -1721,12 +1753,14 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="5">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
@@ -1736,12 +1770,14 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="5">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -1751,12 +1787,14 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="5">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -1766,12 +1804,14 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="5">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -1781,12 +1821,14 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="5">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -1796,12 +1838,14 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="5">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -1811,12 +1855,14 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="5">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
@@ -1826,15 +1872,17 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="5">
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -1847,7 +1895,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" ref="D16:I16" si="1">C16-(SUM(D2:D14))</f>
+        <f t="shared" ref="D16:K16" si="1">C16-(SUM(D2:D14))</f>
         <v>20</v>
       </c>
       <c r="E16" s="5">
@@ -1870,8 +1918,16 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -1880,36 +1936,44 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <f>B17-($B$17/7)</f>
-        <v>17.142857142857142</v>
+        <f>B17-($B$17/9)</f>
+        <v>17.777777777777779</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" ref="D17:I17" si="2">C17-($B$17/7)</f>
-        <v>14.285714285714285</v>
+        <f t="shared" ref="D17:K17" si="2">C17-($B$17/9)</f>
+        <v>15.555555555555557</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="2"/>
-        <v>11.428571428571427</v>
+        <v>13.333333333333336</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="2"/>
-        <v>8.5714285714285694</v>
+        <v>11.111111111111114</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="2"/>
-        <v>5.7142857142857117</v>
+        <v>8.8888888888888928</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="2"/>
-        <v>2.8571428571428545</v>
+        <v>6.6666666666666705</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:9" s="8" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>4.4444444444444482</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="2"/>
+        <v>2.2222222222222259</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="2"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:11" s="8" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1919,10 +1983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1942,39 +2006,31 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A15" si="0">A2+1</f>
+        <f>A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <f>'Burndown Chart'!B2</f>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A4:A26" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <f>'Burndown Chart'!B3</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1983,14 +2039,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5">
-        <f>'Burndown Chart'!B7</f>
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1999,14 +2051,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <f>'Burndown Chart'!B6</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2015,14 +2063,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <f>'Burndown Chart'!B5</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2031,14 +2075,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <f>'Burndown Chart'!B4</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2047,14 +2087,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <f>'Burndown Chart'!B11</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2063,14 +2099,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <f>'Burndown Chart'!B13</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2078,79 +2110,95 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <f>'Burndown Chart'!B8</f>
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12">
-        <f>'Burndown Chart'!B9</f>
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <f>'Burndown Chart'!B12</f>
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <f>'Burndown Chart'!B10</f>
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C15">
-        <f>'Burndown Chart'!B14</f>
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
         <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2159,4 +2207,52 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/Scrum.xlsx
+++ b/Documentation/Scrum.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -55,30 +55,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>Customer wants Client GUI</t>
-  </si>
-  <si>
-    <t>Customer wants Server GUI</t>
-  </si>
-  <si>
-    <t>Customer wants to get data from external database</t>
-  </si>
-  <si>
-    <t>Customer wants to store data in database</t>
-  </si>
-  <si>
-    <t>Customer wants users to have log-ins</t>
-  </si>
-  <si>
-    <t>Customer wants to have secure user accounts</t>
-  </si>
-  <si>
-    <t>Customer wants Client - Server architecture</t>
-  </si>
-  <si>
-    <t>Customer wants to see list of movies</t>
-  </si>
-  <si>
     <t>PB-ID</t>
   </si>
   <si>
@@ -94,14 +70,143 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Sprint planning haven't been held yet</t>
+    <t>As owner I want proces report</t>
+  </si>
+  <si>
+    <t>As owner I want project report</t>
+  </si>
+  <si>
+    <t>As an owner I want javadoc</t>
+  </si>
+  <si>
+    <t>As owner I want user guide</t>
+  </si>
+  <si>
+    <t>As user I want to be able to connect to a server</t>
+  </si>
+  <si>
+    <t>As user/guest I want to see a list of current movies from server</t>
+  </si>
+  <si>
+    <t>As guest I want to reqister to system</t>
+  </si>
+  <si>
+    <t>As user I want to log in</t>
+  </si>
+  <si>
+    <t>As user I want to see information about chosen movie on the server</t>
+  </si>
+  <si>
+    <t>As user I want to have list of favourites</t>
+  </si>
+  <si>
+    <t>As user I want to add/remove movie from my list of favourites</t>
+  </si>
+  <si>
+    <t>As user I want to rate a movie</t>
+  </si>
+  <si>
+    <t>As administratr I want to have user accounts secure</t>
+  </si>
+  <si>
+    <t>As administrator I want to be able to get log file from server containing information</t>
+  </si>
+  <si>
+    <t>As user I want to see trailer for movies</t>
+  </si>
+  <si>
+    <t>As user I want my data stored</t>
+  </si>
+  <si>
+    <t>As user I want to see my profile</t>
+  </si>
+  <si>
+    <t>As user I want to manage my profile</t>
+  </si>
+  <si>
+    <t>As administrator I want to see list of users</t>
+  </si>
+  <si>
+    <t>As administrator I want to managge users</t>
+  </si>
+  <si>
+    <t>As administrator I want server to connect to external server</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>As owner I want requirements in project report</t>
+  </si>
+  <si>
+    <t>As owner I want group policy in project report</t>
+  </si>
+  <si>
+    <t>Implement connection to extarnal server</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Implement connecting to server</t>
+  </si>
+  <si>
+    <t>Create gui for registering new user</t>
+  </si>
+  <si>
+    <t>Create controller class for registering user</t>
+  </si>
+  <si>
+    <t>Implement database to store users</t>
+  </si>
+  <si>
+    <t>Implement adding new uer to database</t>
+  </si>
+  <si>
+    <t>Use case diagram for registering users</t>
+  </si>
+  <si>
+    <t>Use case description for registering users</t>
+  </si>
+  <si>
+    <t>Test registering new users</t>
+  </si>
+  <si>
+    <t>Marek</t>
+  </si>
+  <si>
+    <t>Implement model classes for user</t>
+  </si>
+  <si>
+    <t>Andreea</t>
+  </si>
+  <si>
+    <t>Stela</t>
+  </si>
+  <si>
+    <t>Marek, Stela</t>
+  </si>
+  <si>
+    <t>Activity diagram for registering users</t>
+  </si>
+  <si>
+    <t>Server connection to database</t>
+  </si>
+  <si>
+    <t>Implement sendng data via Json</t>
+  </si>
+  <si>
+    <t>Estimated time--&gt;</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,17 +230,8 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,14 +244,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -178,11 +268,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -191,8 +294,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -302,7 +408,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart'!$A$16</c:f>
+              <c:f>'Burndown Chart'!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -335,6 +441,9 @@
               <c:numCache>
                 <c:formatCode>dd-mm-yy</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>42867</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -367,39 +476,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$16:$K$16</c:f>
+              <c:f>'Burndown Chart'!$B$25:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -416,7 +525,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart'!$A$17</c:f>
+              <c:f>'Burndown Chart'!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -449,6 +558,9 @@
               <c:numCache>
                 <c:formatCode>dd-mm-yy</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>42867</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>42870</c:v>
                 </c:pt>
@@ -481,39 +593,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$17:$K$17</c:f>
+              <c:f>'Burndown Chart'!$B$26:$K$26</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.777777777777779</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.555555555555557</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.333333333333336</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.111111111111114</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8888888888888928</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6666666666666705</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4444444444444482</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2222222222222259</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5527136788005009E-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1268,16 +1380,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>857249</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>110215</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>598713</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1602,15 +1714,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="81.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
@@ -1624,7 +1736,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3"/>
+      <c r="A1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="9">
+        <v>42867</v>
+      </c>
       <c r="C1" s="4">
         <v>42870</v>
       </c>
@@ -1657,9 +1774,11 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+      <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="B2" s="5">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1671,13 +1790,17 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="5">
-        <f t="shared" ref="L2:L14" si="0">SUM(C2:K2)</f>
+        <f>SUM(C2:K2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1688,13 +1811,17 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L2:L23" si="0">SUM(C3:K3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5">
+        <v>10</v>
+      </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1710,7 +1837,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1727,7 +1856,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1744,7 +1875,9 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1761,7 +1894,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1778,7 +1913,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1795,7 +1932,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1812,7 +1951,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1824,12 +1965,14 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(C11:K11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1846,7 +1989,9 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1863,7 +2008,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1880,100 +2027,188 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L15" s="6"/>
+      <c r="A15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="L15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="L16" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B16" s="5">
+    </row>
+    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="L17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="L18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="L19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="L20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="L21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="L22" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="L23" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="5">
         <f>SUM(B2:B14)</f>
-        <v>20</v>
-      </c>
-      <c r="C16" s="5">
-        <f>B16-(SUM(C2:C14))</f>
-        <v>20</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" ref="D16:K16" si="1">C16-(SUM(D2:D14))</f>
-        <v>20</v>
-      </c>
-      <c r="E16" s="5">
+        <v>18</v>
+      </c>
+      <c r="C25" s="5">
+        <f>B25-(SUM(C2:C23))</f>
+        <v>18</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" ref="D25:K25" si="1">C25-(SUM(D2:D23))</f>
+        <v>18</v>
+      </c>
+      <c r="E25" s="5">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F16" s="5">
+        <v>18</v>
+      </c>
+      <c r="F25" s="5">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="G16" s="5">
+        <v>18</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="H16" s="5">
+        <v>18</v>
+      </c>
+      <c r="H25" s="5">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="I16" s="5">
+        <v>18</v>
+      </c>
+      <c r="I25" s="5">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="J16" s="5">
+        <v>18</v>
+      </c>
+      <c r="J25" s="5">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="K16" s="5">
+        <v>18</v>
+      </c>
+      <c r="K25" s="5">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B26" s="5">
         <f>SUM(B2:B14)</f>
-        <v>20</v>
-      </c>
-      <c r="C17" s="7">
-        <f>B17-($B$17/9)</f>
-        <v>17.777777777777779</v>
-      </c>
-      <c r="D17" s="7">
-        <f t="shared" ref="D17:K17" si="2">C17-($B$17/9)</f>
-        <v>15.555555555555557</v>
-      </c>
-      <c r="E17" s="7">
-        <f t="shared" si="2"/>
-        <v>13.333333333333336</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" si="2"/>
-        <v>11.111111111111114</v>
-      </c>
-      <c r="G17" s="7">
-        <f t="shared" si="2"/>
-        <v>8.8888888888888928</v>
-      </c>
-      <c r="H17" s="7">
-        <f t="shared" si="2"/>
-        <v>6.6666666666666705</v>
-      </c>
-      <c r="I17" s="7">
-        <f t="shared" si="2"/>
-        <v>4.4444444444444482</v>
-      </c>
-      <c r="J17" s="7">
-        <f t="shared" si="2"/>
-        <v>2.2222222222222259</v>
-      </c>
-      <c r="K17" s="7">
-        <f t="shared" si="2"/>
-        <v>3.5527136788005009E-15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:11" s="8" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <f>B26-($B$26/9)</f>
+        <v>16</v>
+      </c>
+      <c r="D26" s="7">
+        <f>C26-($B$26/9)</f>
+        <v>14</v>
+      </c>
+      <c r="E26" s="7">
+        <f>D26-($B$26/9)</f>
+        <v>12</v>
+      </c>
+      <c r="F26" s="7">
+        <f>E26-($B$26/9)</f>
+        <v>10</v>
+      </c>
+      <c r="G26" s="7">
+        <f>F26-($B$26/9)</f>
+        <v>8</v>
+      </c>
+      <c r="H26" s="7">
+        <f>G26-($B$26/9)</f>
+        <v>6</v>
+      </c>
+      <c r="I26" s="7">
+        <f>H26-($B$26/9)</f>
+        <v>4</v>
+      </c>
+      <c r="J26" s="7">
+        <f>I26-($B$26/9)</f>
+        <v>2</v>
+      </c>
+      <c r="K26" s="7">
+        <f>J26-($B$26/9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1983,14 +2218,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="111.5703125" customWidth="1"/>
   </cols>
@@ -2011,194 +2247,264 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A26" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
         <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
         <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
         <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
         <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
         <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <v>15.1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15.2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>24</v>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2211,10 +2517,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,27 +2535,282 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
